--- a/public/forms/buildings_with_pois.xlsx
+++ b/public/forms/buildings_with_pois.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="233">
   <si>
     <t>type</t>
   </si>
@@ -838,17 +838,17 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C123:C128 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.24489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,14 +1000,14 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C123:C128 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.24489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.12755102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,16 +1040,16 @@
   </sheetPr>
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C123" activeCellId="0" sqref="C123:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.24489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,6 +2258,9 @@
       <c r="B123" s="0" t="s">
         <v>215</v>
       </c>
+      <c r="C123" s="0" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
@@ -2266,6 +2269,9 @@
       <c r="B124" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="C124" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
@@ -2274,6 +2280,9 @@
       <c r="B125" s="0" t="s">
         <v>217</v>
       </c>
+      <c r="C125" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
@@ -2282,12 +2291,18 @@
       <c r="B127" s="0" t="s">
         <v>218</v>
       </c>
+      <c r="C127" s="0" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>43</v>
       </c>
       <c r="B128" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2365,14 +2380,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="C123:C128 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.24489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
